--- a/Blaze.Ai.Ages/MathTests.xlsx
+++ b/Blaze.Ai.Ages/MathTests.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Blaze\Blaze.Ai.Ages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C07049-E987-4736-A343-2B23C8165305}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C725E-4A4F-419D-8DC0-73BE6E881DDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="4995" windowWidth="21435" windowHeight="10950" activeTab="1" xr2:uid="{47D9F0B9-52AE-4E9E-B9AF-75B0DD2C0F95}"/>
+    <workbookView xWindow="29385" yWindow="5280" windowWidth="21690" windowHeight="10665" xr2:uid="{47D9F0B9-52AE-4E9E-B9AF-75B0DD2C0F95}"/>
   </bookViews>
   <sheets>
     <sheet name="Niche Penalty Strat" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Radius</t>
   </si>
@@ -103,65 +102,15 @@
     <t>To Radius</t>
   </si>
   <si>
-    <t>StdDev</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>4* (x10 samples)</t>
-  </si>
-  <si>
-    <t>ave</t>
-  </si>
-  <si>
-    <t>Err</t>
-  </si>
-  <si>
-    <t>Corrected</t>
-  </si>
-  <si>
-    <t>Ave</t>
-  </si>
-  <si>
-    <t>4*</t>
-  </si>
-  <si>
-    <t>runs with 1000 samples each out of 7 uniform samples</t>
-  </si>
-  <si>
-    <t>CorrectionFactor</t>
-  </si>
-  <si>
-    <t>Corrected Err</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Corrected exp</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -191,54 +140,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8E57B-9F76-4066-A0B1-FA38511584A1}">
   <dimension ref="A2:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -1906,6 +1815,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
       <c r="E58">
         <v>50</v>
       </c>
@@ -2008,767 +1920,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D463DAD8-5E48-4771-A382-AA9A08E8A459}">
-  <dimension ref="B2:S24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.57268259911051</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.58868325069358</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.51789418726417</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.51664667207149</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(C6:F6)</f>
-        <v>1.5489766772849376</v>
-      </c>
-      <c r="H6">
-        <f>(ABS(G6-B6))/B6</f>
-        <v>0.5489766772849376</v>
-      </c>
-      <c r="I6">
-        <f>F6*I$3</f>
-        <v>1.0110977813809932</v>
-      </c>
-      <c r="J6">
-        <f>ABS(B6-I6)/I6</f>
-        <v>1.0975972438427678E-2</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="4">
-        <v>1.0205615250290301</v>
-      </c>
-      <c r="P6" s="4">
-        <v>-8.6138636387017992E-3</v>
-      </c>
-      <c r="Q6" s="8">
-        <f>ABS(O6-B6)/B6</f>
-        <v>2.0561525029030081E-2</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.99722126914993</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3.0860356615348401</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.0604012337422599</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3.0600387671404601</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE(C7:F7)</f>
-        <v>3.0509242328918726</v>
-      </c>
-      <c r="H7">
-        <f>(ABS(G7-B7))/B7</f>
-        <v>0.52546211644593632</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I13" si="0">F7*I$3</f>
-        <v>2.0400258447603066</v>
-      </c>
-      <c r="J7">
-        <f>ABS(B7-I7)/I7</f>
-        <v>1.9620263568283086E-2</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="4">
-        <v>2.0186056834618</v>
-      </c>
-      <c r="P7" s="4">
-        <v>3.4852037443555202E-2</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" ref="Q7:Q13" si="1">ABS(O7-B7)/B7</f>
-        <v>9.3028417309000133E-3</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.4131440353547697</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.5705205237546904</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.6665910968444999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.6324950578187396</v>
-      </c>
-      <c r="G8">
-        <f>AVERAGE(C8:F8)</f>
-        <v>4.5706876784431749</v>
-      </c>
-      <c r="H8">
-        <f>(ABS(G8-B8))/B8</f>
-        <v>0.52356255948105834</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>3.0883300385458261</v>
-      </c>
-      <c r="J8">
-        <f>ABS(B8-I8)/I8</f>
-        <v>2.8601230258219833E-2</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="4">
-        <v>3.07590009333091</v>
-      </c>
-      <c r="P8" s="4">
-        <v>2.7476612696180298E-2</v>
-      </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5300031110303323E-2</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7.3872211730693396</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7.6361382891628597</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7.4500124124184302</v>
-      </c>
-      <c r="F9" s="4">
-        <v>7.5941991279056102</v>
-      </c>
-      <c r="G9">
-        <f>AVERAGE(C9:F9)</f>
-        <v>7.5168927506390606</v>
-      </c>
-      <c r="H9">
-        <f>(ABS(G9-B9))/B9</f>
-        <v>0.50337855012781207</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>5.0627994186037402</v>
-      </c>
-      <c r="J9">
-        <f>ABS(B9-I9)/I9</f>
-        <v>1.2404089795257877E-2</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="4">
-        <v>5.1713123155740597</v>
-      </c>
-      <c r="P9" s="4">
-        <v>-3.30496242330646E-3</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="1"/>
-        <v>3.4262463114811938E-2</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>12.1120745128063</v>
-      </c>
-      <c r="D10" s="4">
-        <v>12.110992507418301</v>
-      </c>
-      <c r="E10" s="4">
-        <v>12.5573657786494</v>
-      </c>
-      <c r="F10" s="4">
-        <v>12.227050016942499</v>
-      </c>
-      <c r="G10">
-        <f>AVERAGE(C10:F10)</f>
-        <v>12.251870703954125</v>
-      </c>
-      <c r="H10">
-        <f>(ABS(G10-B10))/B10</f>
-        <v>0.53148383799426568</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>8.1513666779616649</v>
-      </c>
-      <c r="J10">
-        <f>ABS(B10-I10)/I10</f>
-        <v>1.8569484595866045E-2</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="4">
-        <v>8.11494117444688</v>
-      </c>
-      <c r="P10" s="4">
-        <v>-5.6867828064319198E-2</v>
-      </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="1"/>
-        <v>1.4367646805860002E-2</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>19.887787907874099</v>
-      </c>
-      <c r="D11" s="4">
-        <v>20.104653743604299</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20.515131855438899</v>
-      </c>
-      <c r="F11" s="4">
-        <v>19.937419358864599</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(C11:F11)</f>
-        <v>20.111248216445475</v>
-      </c>
-      <c r="H11">
-        <f>(ABS(G11-B11))/B11</f>
-        <v>0.54701909357272882</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>13.291612905909732</v>
-      </c>
-      <c r="J11">
-        <f>ABS(B11-I11)/I11</f>
-        <v>2.1939617710358884E-2</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="4">
-        <v>13.298435034059599</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.15474986044650399</v>
-      </c>
-      <c r="Q11" s="8">
-        <f t="shared" si="1"/>
-        <v>2.2956541081507627E-2</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>32.946563409312297</v>
-      </c>
-      <c r="D12" s="4">
-        <v>31.656824691626198</v>
-      </c>
-      <c r="E12" s="4">
-        <v>32.063859103576497</v>
-      </c>
-      <c r="F12" s="4">
-        <v>32.141169571802799</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE(C12:F12)</f>
-        <v>32.202104194079453</v>
-      </c>
-      <c r="H12">
-        <f>(ABS(G12-B12))/B12</f>
-        <v>0.53343353305140251</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>21.427446381201865</v>
-      </c>
-      <c r="J12">
-        <f>ABS(B12-I12)/I12</f>
-        <v>1.9948545132137629E-2</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="4">
-        <v>21.485068342684102</v>
-      </c>
-      <c r="P12" s="4">
-        <v>7.1275077475083007E-2</v>
-      </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="1"/>
-        <v>2.3098492508766742E-2</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4">
-        <v>53.103899268514503</v>
-      </c>
-      <c r="D13" s="4">
-        <v>53.215971020443902</v>
-      </c>
-      <c r="E13" s="4">
-        <v>52.130796020003899</v>
-      </c>
-      <c r="F13" s="4">
-        <v>52.500747505601304</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE(C13:F13)</f>
-        <v>52.737853453640902</v>
-      </c>
-      <c r="H13">
-        <f>(ABS(G13-B13))/B13</f>
-        <v>0.5511133368717912</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>35.000498337067533</v>
-      </c>
-      <c r="J13">
-        <f>ABS(B13-I13)/I13</f>
-        <v>2.8585259770657272E-2</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="4">
-        <v>34.581322668708097</v>
-      </c>
-      <c r="P13" s="4">
-        <v>-5.3413345333598601E-2</v>
-      </c>
-      <c r="Q13" s="8">
-        <f t="shared" si="1"/>
-        <v>1.7097725550238148E-2</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.14222693813137E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.14222693813137E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4.9557767679708799E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6.91631019316441E-3</v>
-      </c>
-      <c r="G17">
-        <f>AVERAGE(C17:F17)</f>
-        <v>1.9829654158875151E-2</v>
-      </c>
-      <c r="H17">
-        <f>(ABS(G17-B17))/(G17)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5.9535864231891701E-2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5.9535864231891701E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>-1.09082676223052E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-1.8975736903667301E-2</v>
-      </c>
-      <c r="G18">
-        <f>AVERAGE(C18:F18)</f>
-        <v>2.2296930984452727E-2</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H24" si="2">(ABS(G18-B18))/(ABS(B18)+ABS(G18))</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6.7950368769443797E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6.7950368769443797E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>-0.107727693398356</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.07488003522849E-2</v>
-      </c>
-      <c r="G19">
-        <f>AVERAGE(C19:F19)</f>
-        <v>9.7304611232041233E-3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.23403183691856899</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.23403183691856899</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-0.19914832959377499</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-4.82974019913456E-2</v>
-      </c>
-      <c r="G20">
-        <f>AVERAGE(C20:F20)</f>
-        <v>5.5154485563004348E-2</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.18561731154174399</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.18561731154174399</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.128744837634612</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.15098213558745599</v>
-      </c>
-      <c r="G21">
-        <f>AVERAGE(C21:F21)</f>
-        <v>0.16274039907638899</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-0.72934072179037002</v>
-      </c>
-      <c r="D22" s="4">
-        <v>-0.72934072179037002</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3.9363731661514703E-2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.10769662763844</v>
-      </c>
-      <c r="G22">
-        <f>AVERAGE(C22:F22)</f>
-        <v>-0.32790527107019635</v>
-      </c>
-      <c r="H22">
-        <f>(ABS(G22-B22))/(ABS(B22)+ABS(G22))</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.03606217962692</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.03606217962692</v>
-      </c>
-      <c r="E23" s="4">
-        <v>-0.61208223262526096</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.184336825417139</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE(C23:F23)</f>
-        <v>0.41109473801142954</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-1.56571281847996</v>
-      </c>
-      <c r="D24" s="4">
-        <v>-1.56571281847996</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1.00209389766775</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.16701763681704801</v>
-      </c>
-      <c r="G24">
-        <f>AVERAGE(C24:F24)</f>
-        <v>-0.49057852561878057</v>
-      </c>
-      <c r="H24">
-        <f>(ABS(G24-B24))/(ABS(B24)+ABS(G24))</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Blaze.Ai.Ages/MathTests.xlsx
+++ b/Blaze.Ai.Ages/MathTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Blaze\Blaze.Ai.Ages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C725E-4A4F-419D-8DC0-73BE6E881DDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602B45B-EF7E-4F79-AA10-46CF9B6AA517}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="5280" windowWidth="21690" windowHeight="10665" xr2:uid="{47D9F0B9-52AE-4E9E-B9AF-75B0DD2C0F95}"/>
+    <workbookView minimized="1" xWindow="-24990" yWindow="5625" windowWidth="7695" windowHeight="10155" xr2:uid="{47D9F0B9-52AE-4E9E-B9AF-75B0DD2C0F95}"/>
   </bookViews>
   <sheets>
     <sheet name="Niche Penalty Strat" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Radius</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Penalty Factor</t>
   </si>
   <si>
-    <t>(roughly the percent penalty applied at</t>
-  </si>
-  <si>
     <t>1 Niche radius of distance)</t>
   </si>
   <si>
@@ -102,7 +99,40 @@
     <t>To Radius</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>PenaltyTable</t>
+  </si>
+  <si>
+    <t>Ref Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(roughly the inverse </t>
+  </si>
+  <si>
+    <t>of the percent penalty applied at</t>
+  </si>
+  <si>
+    <t>N Radius</t>
+  </si>
+  <si>
+    <t>Penalty at Niche Radius</t>
+  </si>
+  <si>
+    <t>Inverse(new) penalty Factor</t>
+  </si>
+  <si>
+    <t>Penalty Factor (old)</t>
+  </si>
+  <si>
+    <t>New penalty factor is the inverse</t>
+  </si>
+  <si>
+    <t>so it follows exactly the percentage</t>
+  </si>
+  <si>
+    <t>Safety offset</t>
   </si>
 </sst>
 </file>
@@ -209,6 +239,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16343012678970681"/>
+          <c:y val="5.5555555555555552E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -305,40 +343,40 @@
             <c:numRef>
               <c:f>'Niche Penalty Strat'!$E$22:$E$32</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1000</c:v>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>1.98980101989801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>9.9495025248737563E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>6.6331122295923469E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>4.9748756281092973E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>3.9799204015919685E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>3.3166113898101699E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125</c:v>
+                  <c:v>2.8428165311924114E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>2.487468906638667E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>2.21108654348285E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.909090909090907</c:v>
+                  <c:v>1.9899801001989981E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +575,419 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Penalty %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Niche Penalty Strat'!$D$22:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Niche Penalty Strat'!$F$22:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9990000999899999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9997500124993747E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3332222259258026E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4999375015624607E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999600007999841E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6666388893518441E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4285510206997042E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2499843751953099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1110987655692714E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999000009999908E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BF-4BC0-9732-72533F812AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="574497800"/>
+        <c:axId val="574498456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="574497800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574498456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574498456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574497800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1093,20 +1543,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1126,6 +2092,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F509D27-781A-40F9-A9BA-2AEBD3807352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1431,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8E57B-9F76-4066-A0B1-FA38511584A1}">
-  <dimension ref="A2:F68"/>
+  <dimension ref="A2:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +2444,12 @@
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -1478,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1503,8 +2510,8 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f>$B$20/(($B$24/$B$19)*D22+1)</f>
-        <v>1000</v>
+        <f>$B$20/((D22*$B$24/$B$19)+$B$34)</f>
+        <v>199</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F32" si="0">E22/B$20*100</f>
@@ -1515,204 +2522,222 @@
       <c r="D23">
         <v>0.05</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" ref="E23:E32" si="1">$B$20/(($B$24/$B$19)*D23+1)</f>
-        <v>500</v>
+      <c r="E23">
+        <f t="shared" ref="E23:E32" si="1">$B$20/((D23*$B$24/$B$19)+$B$34)</f>
+        <v>1.98980101989801E-2</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>9.9990000999899999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <f>100/0.001</f>
+        <v>100000</v>
       </c>
       <c r="D24">
         <v>0.1</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
+        <v>9.9495025248737563E-3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>4.9997500124993747E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>0.15</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>6.6331122295923469E-3</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>3.3332222259258026E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>0.2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>4.9748756281092973E-3</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2.4999375015624607E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
       <c r="D27">
         <v>0.25</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>166.66666666666666</v>
+        <v>3.9799204015919685E-3</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>1.9999600007999841E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>0.3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>142.85714285714286</v>
+        <v>3.3166113898101699E-3</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
+        <v>1.6666388893518441E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
       <c r="D29">
         <v>0.35</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>2.8428165311924114E-3</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>1.4285510206997042E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
       <c r="D30">
         <v>0.4</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>111.11111111111111</v>
+        <v>2.487468906638667E-3</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>11.111111111111112</v>
+        <v>1.2499843751953099E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.45</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2.21108654348285E-3</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1.1110987655692714E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>0.5</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <v>1.9899801001989981E-3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9999000009999908E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <f>SQRT(B40)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <f>1/B47</f>
@@ -1725,10 +2750,16 @@
         <f>B$48*POWER(E48, B$49)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <f>LOG(B47^2)/LOG(B40)</f>
@@ -1741,8 +2772,14 @@
         <f t="shared" ref="F49:F68" si="2">B$48*POWER(E49, B$49)</f>
         <v>0.81167270498191302</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <v>10</v>
       </c>
@@ -1751,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>15</v>
       </c>
@@ -1760,7 +2797,7 @@
         <v>1.1298186800717998</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>20</v>
       </c>
@@ -1768,8 +2805,35 @@
         <f t="shared" si="2"/>
         <v>1.2320236886890061</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.1</v>
+      </c>
+      <c r="L52">
+        <v>0.5</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>25</v>
       </c>
@@ -1777,8 +2841,11 @@
         <f t="shared" si="2"/>
         <v>1.3176251600253113</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>30</v>
       </c>
@@ -1786,8 +2853,39 @@
         <f t="shared" si="2"/>
         <v>1.391963377771803</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+      <c r="J54">
+        <f>$I$48/(($I$49*J$52)/$I54+1)</f>
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:P54" si="3">$I$48/(($I$49*K$52)/$I54+1)</f>
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>35</v>
       </c>
@@ -1795,8 +2893,39 @@
         <f t="shared" si="2"/>
         <v>1.4580781470854736</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>0.5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55:P59" si="4">$I$48/(($I$49*J$52)/$I55+1)</f>
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>40</v>
       </c>
@@ -1804,8 +2933,39 @@
         <f t="shared" si="2"/>
         <v>1.517882369490865</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>45</v>
       </c>
@@ -1813,11 +2973,39 @@
         <f t="shared" si="2"/>
         <v>1.5726662261824222</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>95.238095238095241</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>50</v>
       </c>
@@ -1825,8 +3013,39 @@
         <f t="shared" si="2"/>
         <v>1.623345409963826</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>97.560975609756099</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>55</v>
       </c>
@@ -1834,8 +3053,39 @@
         <f t="shared" si="2"/>
         <v>1.6705957691691666</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>98.76543209876543</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>94.117647058823536</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>60</v>
       </c>
@@ -1844,7 +3094,7 @@
         <v>1.7149318552024251</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>65</v>
       </c>
@@ -1853,7 +3103,7 @@
         <v>1.7567554285527116</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>70</v>
       </c>
@@ -1862,7 +3112,7 @@
         <v>1.7963868171690769</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>75</v>
       </c>
@@ -1871,7 +3121,7 @@
         <v>1.8340859683859445</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>80</v>
       </c>
@@ -1880,7 +3130,7 @@
         <v>1.8700670358561444</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>85</v>
       </c>
@@ -1888,8 +3138,17 @@
         <f t="shared" si="2"/>
         <v>1.9045087625892223</v>
       </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>90</v>
       </c>
@@ -1897,8 +3156,19 @@
         <f t="shared" si="2"/>
         <v>1.9375620450578868</v>
       </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>1/(G66*100+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f>1/(G66+1)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>95</v>
       </c>
@@ -1906,14 +3176,101 @@
         <f t="shared" si="2"/>
         <v>1.9693555561483402</v>
       </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H73" si="5">1/(G67*100+1)</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="I67">
+        <f>1/(G67+1)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="2">
         <v>100</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="2"/>
         <v>2.0000000000000004</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="I68">
+        <f>1/(G68+1)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>2.4937655860349127E-3</v>
+      </c>
+      <c r="I69">
+        <f>1/(G69+1)*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>1.2484394506866417E-3</v>
+      </c>
+      <c r="I70">
+        <f>1/(G70+1)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="I71">
+        <f>1/(G71+1)*100</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>50</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>1.9996000799840031E-4</v>
+      </c>
+      <c r="I72">
+        <f>1/(G72+1)*100</f>
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>9.9990000999900015E-5</v>
+      </c>
+      <c r="I73">
+        <f>1/(G73+1)*100</f>
+        <v>0.99009900990099009</v>
       </c>
     </row>
   </sheetData>
